--- a/ativo.xlsx
+++ b/ativo.xlsx
@@ -476,7 +476,7 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>% sobre VALEF121</t>
+          <t>% sobre ITSAG113</t>
         </is>
       </c>
     </row>
@@ -486,20 +486,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>VALE3</t>
+          <t>ITSA4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>113.93</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>113.94</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>113.94</v>
+        <v>11.65</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,20 +520,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>VALEF121</t>
+          <t>ITSAG113</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>117.1</v>
+        <v>11.26</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>0.63</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -554,32 +554,32 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>VALEG112</t>
+          <t>ITSAH115</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>117.1</v>
+        <v>11.54</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.11</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>0.68</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>0.2799999999999994</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2.48667850799289</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>-0.3000000000000006</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>-2.664298401420965</v>
       </c>
     </row>
   </sheetData>

--- a/ativo.xlsx
+++ b/ativo.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="acoes" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,50 +434,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Ativo</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Strike</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>bid</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>ask</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Last</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>▲ R$</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>▲ % Strike</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Somatório</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>% sobre ITSAG113</t>
-        </is>
+      <c r="B1" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="2">
@@ -486,20 +468,20 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ITSA4</t>
+          <t>BBAS3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>34.16</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>0.9157999999999999</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>11.65</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -520,20 +502,20 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ITSAG113</t>
+          <t>BBSE3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>11.26</v>
+        <v>25.31</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-0.9005</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6899999999999999</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.63</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -554,32 +536,542 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ITSAH115</t>
+          <t>CMIG4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.54</v>
+        <v>12.8</v>
       </c>
       <c r="D4" t="n">
-        <v>0.11</v>
+        <v>-0.0781</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.68</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2799999999999994</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>2.48667850799289</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.3000000000000006</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>-2.664298401420965</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>COCE5</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>60.01</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.1836</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>COGN3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>4.73</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.8529</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>CSAN3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>24.9</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.3861</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>DIRR3</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>14.65</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.0345</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ELET3</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>47.57</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.0408</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>GGBR4</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>29.98</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.604</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>IRBR3</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.6623</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>ITSA4</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>11.95</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1.0144</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>MTRE3</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>11.77</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-0.3387</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>OIBR3</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="D14" t="n">
+        <v>1.3072</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>RRRP3</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>48.39</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.6029</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>SAPR11</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-0.191</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>SAPR4</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>VALE3</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>113.6</v>
+      </c>
+      <c r="D18" t="n">
+        <v>1.9749</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>B3SA3</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>17.03</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.2354</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/ativo.xlsx
+++ b/ativo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J19"/>
+  <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34.16</v>
+        <v>33.31</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9157999999999999</v>
+        <v>-1.7983</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>1624632491</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>25.31</v>
+        <v>23.95</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.9005</v>
+        <v>-1.8443</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>1624632485</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12.8</v>
+        <v>12.65</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0781</v>
+        <v>-0.7843</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>1624632494</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60.01</v>
+        <v>58.85</v>
       </c>
       <c r="D5" t="n">
-        <v>0.1836</v>
+        <v>-1.9167</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>1624632485</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.73</v>
+        <v>4.61</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8529</v>
+        <v>-2.9474</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>1624632488</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24.9</v>
+        <v>24.82</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.3861</v>
+        <v>-1.4688</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1624632485</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -676,13 +676,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.65</v>
+        <v>14.66</v>
       </c>
       <c r="D8" t="n">
-        <v>1.0345</v>
+        <v>-2.3968</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1624632482</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>47.57</v>
+        <v>44.41</v>
       </c>
       <c r="D9" t="n">
-        <v>1.0408</v>
+        <v>-3.2251</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1624632490</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -744,13 +744,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.98</v>
+        <v>31.08</v>
       </c>
       <c r="D10" t="n">
-        <v>0.604</v>
+        <v>1.0075</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1624632490</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -778,13 +778,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>6.08</v>
+        <v>5.99</v>
       </c>
       <c r="D11" t="n">
-        <v>0.6623</v>
+        <v>-0.4983</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>1624632490</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11.95</v>
+        <v>11.51</v>
       </c>
       <c r="D12" t="n">
-        <v>1.0144</v>
+        <v>-2.1259</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>1624632494</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -842,17 +842,17 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>MTRE3</t>
+          <t>MOSI3</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>11.77</v>
+        <v>19.5</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3387</v>
+        <v>-0.5102</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>1624632482</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -876,17 +876,17 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>OIBR3</t>
+          <t>MTRE3</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.55</v>
+        <v>11.73</v>
       </c>
       <c r="D14" t="n">
-        <v>1.3072</v>
+        <v>-2.5748</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>1624632484</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -910,17 +910,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>RRRP3</t>
+          <t>OIBR3</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>48.39</v>
+        <v>1.53</v>
       </c>
       <c r="D15" t="n">
-        <v>0.6029</v>
+        <v>-2.5478</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>1624632493</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -944,17 +944,17 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>SAPR11</t>
+          <t>RRRP3</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>20.9</v>
+        <v>46</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.191</v>
+        <v>-1.3087</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>1624632491</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -978,17 +978,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>SAPR4</t>
+          <t>SAPR11</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4.23</v>
+        <v>21.09</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>0.0949</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1624632482</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1012,17 +1012,17 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>VALE3</t>
+          <t>SAPR4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>113.6</v>
+        <v>4.24</v>
       </c>
       <c r="D18" t="n">
-        <v>1.9749</v>
+        <v>-0.9346</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>1624632494</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1046,31 +1046,65 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
+          <t>VALE3</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>113.51</v>
+      </c>
+      <c r="D19" t="n">
+        <v>2.2336</v>
+      </c>
+      <c r="E19" t="n">
+        <v>1624632489</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
           <t>B3SA3</t>
         </is>
       </c>
-      <c r="C19" t="n">
-        <v>17.03</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.2354</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>0</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-      <c r="H19" t="n">
-        <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
+      <c r="C20" t="n">
+        <v>16.68</v>
+      </c>
+      <c r="D20" t="n">
+        <v>-1.8246</v>
+      </c>
+      <c r="E20" t="n">
+        <v>1624632494</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
         <v>0</v>
       </c>
     </row>

--- a/ativo.xlsx
+++ b/ativo.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>33.31</v>
+        <v>31.41</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.7983</v>
+        <v>-1.6594</v>
       </c>
       <c r="E2" t="n">
-        <v>1624632491</v>
+        <v>1625593478</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>23.95</v>
+        <v>22.64</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.8443</v>
+        <v>-1.1785</v>
       </c>
       <c r="E3" t="n">
-        <v>1624632485</v>
+        <v>1625593474</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12.65</v>
+        <v>11.92</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7843</v>
+        <v>-1.4061</v>
       </c>
       <c r="E4" t="n">
-        <v>1624632494</v>
+        <v>1625593491</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58.85</v>
+        <v>60.48</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.9167</v>
+        <v>-1.1442</v>
       </c>
       <c r="E5" t="n">
-        <v>1624632485</v>
+        <v>1625593491</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.61</v>
+        <v>4.16</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.9474</v>
+        <v>-3.2558</v>
       </c>
       <c r="E6" t="n">
-        <v>1624632488</v>
+        <v>1625593493</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24.82</v>
+        <v>24.29</v>
       </c>
       <c r="D7" t="n">
-        <v>-1.4688</v>
+        <v>-2.0169</v>
       </c>
       <c r="E7" t="n">
-        <v>1624632485</v>
+        <v>1625593479</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -676,13 +676,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>14.66</v>
+        <v>13.19</v>
       </c>
       <c r="D8" t="n">
-        <v>-2.3968</v>
+        <v>-3.4407</v>
       </c>
       <c r="E8" t="n">
-        <v>1624632482</v>
+        <v>1625593440</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>44.41</v>
+        <v>42.47</v>
       </c>
       <c r="D9" t="n">
-        <v>-3.2251</v>
+        <v>-1.0715</v>
       </c>
       <c r="E9" t="n">
-        <v>1624632490</v>
+        <v>1625593386</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -744,13 +744,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>31.08</v>
+        <v>29.52</v>
       </c>
       <c r="D10" t="n">
-        <v>1.0075</v>
+        <v>-0.5391</v>
       </c>
       <c r="E10" t="n">
-        <v>1624632490</v>
+        <v>1625593465</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -778,13 +778,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.99</v>
+        <v>5.62</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4983</v>
+        <v>-1.7483</v>
       </c>
       <c r="E11" t="n">
-        <v>1624632490</v>
+        <v>1625593490</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11.51</v>
+        <v>11.05</v>
       </c>
       <c r="D12" t="n">
-        <v>-2.1259</v>
+        <v>-0.2708</v>
       </c>
       <c r="E12" t="n">
-        <v>1624632494</v>
+        <v>1625593492</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.5102</v>
+        <v>-2.529</v>
       </c>
       <c r="E13" t="n">
-        <v>1624632482</v>
+        <v>1625593452</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11.73</v>
+        <v>11.48</v>
       </c>
       <c r="D14" t="n">
-        <v>-2.5748</v>
+        <v>-1.2898</v>
       </c>
       <c r="E14" t="n">
-        <v>1624632484</v>
+        <v>1625593408</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.53</v>
+        <v>1.58</v>
       </c>
       <c r="D15" t="n">
-        <v>-2.5478</v>
+        <v>-0.6289</v>
       </c>
       <c r="E15" t="n">
-        <v>1624632493</v>
+        <v>1625593481</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>46</v>
+        <v>46.1</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.3087</v>
+        <v>-1.6219</v>
       </c>
       <c r="E16" t="n">
-        <v>1624632491</v>
+        <v>1625593473</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>21.09</v>
+        <v>19.87</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0949</v>
+        <v>-1.3406</v>
       </c>
       <c r="E17" t="n">
-        <v>1624632482</v>
+        <v>1625593441</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1016,13 +1016,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4.24</v>
+        <v>4.02</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.9346</v>
+        <v>-0.9852</v>
       </c>
       <c r="E18" t="n">
-        <v>1624632494</v>
+        <v>1625593492</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1050,13 +1050,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>113.51</v>
+        <v>113.77</v>
       </c>
       <c r="D19" t="n">
-        <v>2.2336</v>
+        <v>0.5302</v>
       </c>
       <c r="E19" t="n">
-        <v>1624632489</v>
+        <v>1625593489</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1084,13 +1084,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>16.68</v>
+        <v>15.9</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.8246</v>
+        <v>-1.3035</v>
       </c>
       <c r="E20" t="n">
-        <v>1624632494</v>
+        <v>1625593485</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>

--- a/ativo.xlsx
+++ b/ativo.xlsx
@@ -472,13 +472,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>31.41</v>
+        <v>31.47</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.6594</v>
+        <v>-1.2861</v>
       </c>
       <c r="E2" t="n">
-        <v>1625593478</v>
+        <v>1625740196</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -506,13 +506,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>22.64</v>
+        <v>22.74</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.1785</v>
+        <v>-0.4814</v>
       </c>
       <c r="E3" t="n">
-        <v>1625593474</v>
+        <v>1625740197</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -540,13 +540,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>11.92</v>
+        <v>11.88</v>
       </c>
       <c r="D4" t="n">
-        <v>-1.4061</v>
+        <v>-1.6556</v>
       </c>
       <c r="E4" t="n">
-        <v>1625593491</v>
+        <v>1625740197</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -574,13 +574,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>60.48</v>
+        <v>58.68</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.1442</v>
+        <v>-1.345</v>
       </c>
       <c r="E5" t="n">
-        <v>1625593491</v>
+        <v>1625740140</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -608,13 +608,13 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4.16</v>
+        <v>4.13</v>
       </c>
       <c r="D6" t="n">
-        <v>-3.2558</v>
+        <v>-0.9592000000000001</v>
       </c>
       <c r="E6" t="n">
-        <v>1625593493</v>
+        <v>1625740197</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
@@ -642,13 +642,13 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>24.29</v>
+        <v>24.5</v>
       </c>
       <c r="D7" t="n">
-        <v>-2.0169</v>
+        <v>-0.89</v>
       </c>
       <c r="E7" t="n">
-        <v>1625593479</v>
+        <v>1625740194</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -676,13 +676,13 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>13.19</v>
+        <v>12.83</v>
       </c>
       <c r="D8" t="n">
-        <v>-3.4407</v>
+        <v>-3.0234</v>
       </c>
       <c r="E8" t="n">
-        <v>1625593440</v>
+        <v>1625740196</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -710,13 +710,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>42.47</v>
+        <v>42.52</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.0715</v>
+        <v>-1.1393</v>
       </c>
       <c r="E9" t="n">
-        <v>1625593386</v>
+        <v>1625740199</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -744,13 +744,13 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>29.52</v>
+        <v>29.36</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.5391</v>
+        <v>-2.1333</v>
       </c>
       <c r="E10" t="n">
-        <v>1625593465</v>
+        <v>1625740197</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -778,13 +778,13 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>5.62</v>
+        <v>5.58</v>
       </c>
       <c r="D11" t="n">
-        <v>-1.7483</v>
+        <v>-1.2389</v>
       </c>
       <c r="E11" t="n">
-        <v>1625593490</v>
+        <v>1625740195</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -812,13 +812,13 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>11.05</v>
+        <v>11.07</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2708</v>
+        <v>-1.4248</v>
       </c>
       <c r="E12" t="n">
-        <v>1625593492</v>
+        <v>1625740199</v>
       </c>
       <c r="F12" t="n">
         <v>0</v>
@@ -846,13 +846,13 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>18.5</v>
+        <v>17.75</v>
       </c>
       <c r="D13" t="n">
-        <v>-2.529</v>
+        <v>-1.553</v>
       </c>
       <c r="E13" t="n">
-        <v>1625593452</v>
+        <v>1625740199</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -880,13 +880,13 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>11.48</v>
+        <v>11.45</v>
       </c>
       <c r="D14" t="n">
-        <v>-1.2898</v>
+        <v>-2.4702</v>
       </c>
       <c r="E14" t="n">
-        <v>1625593408</v>
+        <v>1625740188</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -914,13 +914,13 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.6289</v>
+        <v>-1.9108</v>
       </c>
       <c r="E15" t="n">
-        <v>1625593481</v>
+        <v>1625740195</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -948,13 +948,13 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>46.1</v>
+        <v>45.66</v>
       </c>
       <c r="D16" t="n">
-        <v>-1.6219</v>
+        <v>-2.8717</v>
       </c>
       <c r="E16" t="n">
-        <v>1625593473</v>
+        <v>1625740195</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>19.87</v>
+        <v>19.85</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.3406</v>
+        <v>-1.2438</v>
       </c>
       <c r="E17" t="n">
-        <v>1625593441</v>
+        <v>1625740196</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1019,10 +1019,10 @@
         <v>4.02</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.9852</v>
+        <v>-0.7407</v>
       </c>
       <c r="E18" t="n">
-        <v>1625593492</v>
+        <v>1625740197</v>
       </c>
       <c r="F18" t="n">
         <v>0</v>
@@ -1050,13 +1050,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>113.77</v>
+        <v>112.37</v>
       </c>
       <c r="D19" t="n">
-        <v>0.5302</v>
+        <v>-1.5162</v>
       </c>
       <c r="E19" t="n">
-        <v>1625593489</v>
+        <v>1625740187</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -1084,13 +1084,13 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>15.9</v>
+        <v>16.23</v>
       </c>
       <c r="D20" t="n">
-        <v>-1.3035</v>
+        <v>-0.2459</v>
       </c>
       <c r="E20" t="n">
-        <v>1625593485</v>
+        <v>1625740194</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
